--- a/INPUT-MtTime.xlsx
+++ b/INPUT-MtTime.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="164">
   <si>
     <t>SOURCE_PATH</t>
   </si>
@@ -33,42 +33,6 @@
   </si>
   <si>
     <t>DATA_PRE-PROCESS</t>
-  </si>
-  <si>
-    <t>C:/Users/jancl/scripts</t>
-  </si>
-  <si>
-    <t>afstanden.csv</t>
-  </si>
-  <si>
-    <t>C:/Users/jancl/Downloads</t>
-  </si>
-  <si>
-    <t>afstenden_destination.csv</t>
-  </si>
-  <si>
-    <t>afstanden_0.csv</t>
-  </si>
-  <si>
-    <t>afstenden_destination_0.csv</t>
-  </si>
-  <si>
-    <t>countries_destination.csv</t>
-  </si>
-  <si>
-    <t>C:/Users/jancl/scripts/DESTINATION</t>
-  </si>
-  <si>
-    <t>10Track102_vbr.mp3.asd</t>
-  </si>
-  <si>
-    <t>10Track102_vbr.mp3</t>
-  </si>
-  <si>
-    <t>20358080.pdf</t>
-  </si>
-  <si>
-    <t>country_15.csv</t>
   </si>
   <si>
     <t>['10Track102_vbr.mp3'</t>
@@ -562,7 +526,7 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,12 +539,6 @@
         <bgColor rgb="FF1E1E1E"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9900FF"/>
-        <bgColor rgb="FF9900FF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -588,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -596,9 +554,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -821,7 +776,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.71"/>
+    <col customWidth="1" min="1" max="1" width="33.43"/>
     <col customWidth="1" min="2" max="2" width="64.0"/>
     <col customWidth="1" min="3" max="3" width="22.86"/>
     <col customWidth="1" min="4" max="4" width="41.43"/>
@@ -854,111 +809,61 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
@@ -966,6 +871,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
@@ -973,13 +879,15 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
@@ -987,13 +895,15 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
@@ -1001,13 +911,15 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
@@ -1015,6 +927,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2"/>
@@ -1022,28 +935,23 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
@@ -1051,6 +959,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2"/>
@@ -1058,6 +967,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
@@ -1065,66 +975,39 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
@@ -1132,6 +1015,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -1139,6 +1023,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
@@ -1146,6 +1031,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
@@ -1153,6 +1039,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
@@ -1160,6 +1047,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
@@ -1167,6 +1055,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
@@ -1174,6 +1063,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
@@ -1181,6 +1071,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2"/>
@@ -1188,6 +1079,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2"/>
@@ -1195,6 +1087,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2"/>
@@ -1202,6 +1095,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
@@ -1209,6 +1103,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2"/>
@@ -1216,6 +1111,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2"/>
@@ -1223,6 +1119,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2"/>
@@ -1230,6 +1127,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2"/>
@@ -1237,6 +1135,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
@@ -1244,6 +1143,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
@@ -1251,6 +1151,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2"/>
@@ -1258,6 +1159,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
@@ -1265,6 +1167,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
@@ -1272,6 +1175,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
@@ -1279,6 +1183,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
@@ -1286,6 +1191,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2"/>
@@ -1293,6 +1199,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2"/>
@@ -1300,6 +1207,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
@@ -1307,6 +1215,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
@@ -1314,6 +1223,7 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
@@ -1321,6 +1231,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2"/>
@@ -1328,6 +1239,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2"/>
@@ -1335,6 +1247,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2"/>
@@ -1342,6 +1255,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
@@ -1349,6 +1263,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
@@ -1356,6 +1271,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2"/>
@@ -1363,6 +1279,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2"/>
@@ -1370,6 +1287,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
@@ -1377,6 +1295,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2"/>
@@ -1384,6 +1303,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
@@ -1391,6 +1311,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2"/>
@@ -1398,6 +1319,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2"/>
@@ -1405,6 +1327,7 @@
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2"/>
@@ -1412,6 +1335,7 @@
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
@@ -1419,6 +1343,7 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2"/>
@@ -1426,6 +1351,7 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2"/>
@@ -1433,6 +1359,7 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
@@ -1440,6 +1367,7 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2"/>
@@ -1447,6 +1375,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
@@ -2062,1383 +1991,1383 @@
   <sheetData>
     <row r="1">
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2">
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8">
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9">
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10">
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11">
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12">
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13">
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14">
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15">
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16">
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17">
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18">
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19">
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20">
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21">
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22">
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23">
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24">
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25">
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26">
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27">
       <c r="D27" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28">
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29">
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30">
       <c r="D30" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31">
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32">
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33">
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34">
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35">
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36">
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1"/>
     </row>
     <row r="37">
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38">
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1"/>
     </row>
     <row r="39">
       <c r="D39" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40">
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41">
       <c r="D41" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42">
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43">
       <c r="D43" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44">
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1"/>
     </row>
     <row r="45">
       <c r="D45" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46">
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1"/>
     </row>
     <row r="47">
       <c r="D47" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1"/>
     </row>
     <row r="48">
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F48" s="1"/>
     </row>
     <row r="49">
       <c r="D49" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1"/>
     </row>
     <row r="50">
       <c r="D50" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1"/>
     </row>
     <row r="51">
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1"/>
     </row>
     <row r="52">
       <c r="D52" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1"/>
     </row>
     <row r="53">
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1"/>
     </row>
     <row r="54">
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1"/>
     </row>
     <row r="55">
       <c r="D55" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1"/>
     </row>
     <row r="56">
       <c r="D56" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F56" s="1"/>
     </row>
     <row r="57">
       <c r="D57" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1"/>
     </row>
     <row r="58">
       <c r="D58" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1"/>
     </row>
     <row r="59">
       <c r="D59" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1"/>
     </row>
     <row r="60">
       <c r="D60" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1"/>
     </row>
     <row r="61">
       <c r="D61" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1"/>
     </row>
     <row r="62">
       <c r="D62" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63">
       <c r="D63" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1"/>
     </row>
     <row r="64">
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1"/>
     </row>
     <row r="65">
       <c r="D65" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1"/>
     </row>
     <row r="66">
       <c r="D66" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1"/>
     </row>
     <row r="67">
       <c r="D67" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1"/>
     </row>
     <row r="68">
       <c r="D68" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1"/>
     </row>
     <row r="69">
       <c r="D69" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1"/>
     </row>
     <row r="70">
       <c r="D70" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1"/>
     </row>
     <row r="71">
       <c r="D71" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1"/>
     </row>
     <row r="72">
       <c r="D72" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1"/>
     </row>
     <row r="73">
       <c r="D73" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74">
       <c r="D74" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1"/>
     </row>
     <row r="75">
       <c r="D75" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1"/>
     </row>
     <row r="76">
       <c r="D76" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1"/>
     </row>
     <row r="77">
       <c r="D77" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F77" s="1"/>
     </row>
     <row r="78">
       <c r="D78" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1"/>
     </row>
     <row r="79">
       <c r="D79" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="D80" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="D81" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F81" s="1"/>
     </row>
     <row r="82">
       <c r="D82" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1"/>
     </row>
     <row r="83">
       <c r="D83" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F83" s="1"/>
     </row>
     <row r="84">
       <c r="D84" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F84" s="1"/>
     </row>
     <row r="85">
       <c r="D85" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1"/>
     </row>
     <row r="86">
       <c r="D86" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1"/>
     </row>
     <row r="87">
       <c r="D87" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F87" s="1"/>
     </row>
     <row r="88">
       <c r="D88" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F88" s="1"/>
     </row>
     <row r="89">
       <c r="D89" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F89" s="1"/>
     </row>
     <row r="90">
       <c r="D90" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91">
       <c r="D91" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1"/>
     </row>
     <row r="92">
       <c r="D92" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93">
       <c r="D93" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1"/>
     </row>
     <row r="94">
       <c r="D94" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F94" s="1"/>
     </row>
     <row r="95">
       <c r="D95" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F95" s="1"/>
     </row>
     <row r="96">
       <c r="D96" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1"/>
     </row>
     <row r="97">
       <c r="D97" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1"/>
     </row>
     <row r="98">
       <c r="D98" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="D99" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1"/>
     </row>
     <row r="100">
       <c r="D100" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1"/>
     </row>
     <row r="101">
       <c r="D101" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1"/>
     </row>
     <row r="102">
       <c r="D102" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F102" s="1"/>
     </row>
     <row r="103">
       <c r="D103" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1"/>
     </row>
     <row r="104">
       <c r="D104" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F104" s="1"/>
     </row>
     <row r="105">
       <c r="D105" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F105" s="1"/>
     </row>
     <row r="106">
       <c r="D106" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F106" s="1"/>
     </row>
     <row r="107">
       <c r="D107" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108">
       <c r="D108" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F108" s="1"/>
     </row>
     <row r="109">
       <c r="D109" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1"/>
     </row>
     <row r="110">
       <c r="D110" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="111">
       <c r="D111" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1"/>
     </row>
     <row r="112">
       <c r="D112" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113">
       <c r="D113" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1"/>
     </row>
     <row r="114">
       <c r="D114" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F114" s="1"/>
     </row>
     <row r="115">
       <c r="D115" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1"/>
     </row>
     <row r="116">
       <c r="D116" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1"/>
     </row>
     <row r="117">
       <c r="D117" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1"/>
     </row>
     <row r="118">
       <c r="D118" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="D119" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120">
       <c r="D120" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121">
       <c r="D121" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F121" s="1"/>
     </row>
     <row r="122">
       <c r="D122" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F122" s="1"/>
     </row>
     <row r="123">
       <c r="D123" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F123" s="1"/>
     </row>
     <row r="124">
       <c r="D124" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F124" s="1"/>
     </row>
     <row r="125">
       <c r="D125" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F125" s="1"/>
     </row>
     <row r="126">
       <c r="D126" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F126" s="1"/>
     </row>
     <row r="127">
       <c r="D127" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F127" s="1"/>
     </row>
     <row r="128">
       <c r="D128" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F128" s="1"/>
     </row>
     <row r="129">
       <c r="D129" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F129" s="1"/>
     </row>
     <row r="130">
       <c r="D130" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F130" s="1"/>
     </row>
     <row r="131">
       <c r="D131" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F131" s="1"/>
     </row>
     <row r="132">
       <c r="D132" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F132" s="1"/>
     </row>
     <row r="133">
       <c r="D133" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F133" s="1"/>
     </row>
     <row r="134">
       <c r="D134" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F134" s="1"/>
     </row>
     <row r="135">
       <c r="D135" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F135" s="1"/>
     </row>
     <row r="136">
       <c r="D136" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F136" s="1"/>
     </row>
     <row r="137">
       <c r="D137" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F137" s="1"/>
     </row>
     <row r="138">
       <c r="D138" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1"/>
     </row>
     <row r="139">
       <c r="D139" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F139" s="1"/>
     </row>
     <row r="140">
       <c r="D140" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F140" s="1"/>
     </row>
     <row r="141">
       <c r="D141" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F141" s="1"/>
     </row>
     <row r="142">
       <c r="D142" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F142" s="1"/>
     </row>
     <row r="143">
       <c r="D143" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F143" s="1"/>
     </row>
     <row r="144">
       <c r="D144" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145">
       <c r="D145" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F145" s="1"/>
     </row>
     <row r="146">
       <c r="D146" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F146" s="1"/>
     </row>
     <row r="147">
       <c r="D147" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F147" s="1"/>
     </row>
     <row r="148">
       <c r="D148" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149">
       <c r="D149" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150">
       <c r="D150" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151">
       <c r="D151" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152">
       <c r="D152" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153">
       <c r="D153" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
